--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>10.335141642288</v>
+        <v>7.615663536821333</v>
       </c>
       <c r="R2">
-        <v>93.01627478059198</v>
+        <v>68.54097183139199</v>
       </c>
       <c r="S2">
-        <v>0.01670089914498832</v>
+        <v>0.01104507885724636</v>
       </c>
       <c r="T2">
-        <v>0.01670089914498832</v>
+        <v>0.01104507885724636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>262.443048546297</v>
+        <v>267.0188266753113</v>
       </c>
       <c r="R3">
-        <v>2361.987436916673</v>
+        <v>2403.169440077802</v>
       </c>
       <c r="S3">
-        <v>0.4240904514690967</v>
+        <v>0.3872602804389627</v>
       </c>
       <c r="T3">
-        <v>0.4240904514690968</v>
+        <v>0.3872602804389628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>590.324021</v>
       </c>
       <c r="I4">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J4">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
         <v>10.22073891647822</v>
@@ -697,10 +697,10 @@
         <v>91.986650248304</v>
       </c>
       <c r="S4">
-        <v>0.01651603197511392</v>
+        <v>0.01482324774013675</v>
       </c>
       <c r="T4">
-        <v>0.01651603197511392</v>
+        <v>0.01482324774013676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>590.324021</v>
       </c>
       <c r="I5">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J5">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>259.5379891709446</v>
+        <v>358.3574431876499</v>
       </c>
       <c r="R5">
-        <v>2335.841902538501</v>
+        <v>3225.216988688849</v>
       </c>
       <c r="S5">
-        <v>0.4193960693970167</v>
+        <v>0.5197296597928253</v>
       </c>
       <c r="T5">
-        <v>0.4193960693970168</v>
+        <v>0.5197296597928254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H6">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I6">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J6">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.155824</v>
       </c>
       <c r="O6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q6">
-        <v>2.882679350353778</v>
+        <v>1.255649997178667</v>
       </c>
       <c r="R6">
-        <v>25.944114153184</v>
+        <v>11.300849974608</v>
       </c>
       <c r="S6">
-        <v>0.004658217445285143</v>
+        <v>0.001821082715758759</v>
       </c>
       <c r="T6">
-        <v>0.004658217445285143</v>
+        <v>0.001821082715758759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H7">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I7">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J7">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N7">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O7">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P7">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q7">
-        <v>73.20065683403845</v>
+        <v>44.02534163181367</v>
       </c>
       <c r="R7">
-        <v>658.8059115063461</v>
+        <v>396.228074686323</v>
       </c>
       <c r="S7">
-        <v>0.1182873761623198</v>
+        <v>0.06385042717414384</v>
       </c>
       <c r="T7">
-        <v>0.1182873761623198</v>
+        <v>0.06385042717414384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H8">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I8">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J8">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.155824</v>
       </c>
       <c r="O8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q8">
-        <v>0.008228753792</v>
+        <v>0.02811090930666667</v>
       </c>
       <c r="R8">
-        <v>0.074058784128</v>
+        <v>0.25299818376</v>
       </c>
       <c r="S8">
-        <v>1.329711695549713E-05</v>
+        <v>4.076955455553474E-05</v>
       </c>
       <c r="T8">
-        <v>1.329711695549713E-05</v>
+        <v>4.076955455553474E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H9">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I9">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J9">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N9">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O9">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P9">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q9">
-        <v>0.208954971848</v>
+        <v>0.9856189133816667</v>
       </c>
       <c r="R9">
-        <v>1.880594746632</v>
+        <v>8.870570220435001</v>
       </c>
       <c r="S9">
-        <v>0.0003376572892236397</v>
+        <v>0.001429453726370603</v>
       </c>
       <c r="T9">
-        <v>0.0003376572892236398</v>
+        <v>0.001429453726370603</v>
       </c>
     </row>
   </sheetData>
